--- a/metaDataByIdPrograms.xlsx
+++ b/metaDataByIdPrograms.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -35,94 +35,127 @@
     <t>Tùy chọn phân loại</t>
   </si>
   <si>
-    <t>jtc2UxekeS1</t>
-  </si>
-  <si>
-    <t>TT37_BCH07 - HOẠT ĐỘNG THỰC HIỆN BIỆN PHÁP TRÁNH THAI VÀ PHÁ THAI</t>
-  </si>
-  <si>
-    <t>dBlYwCRZr0b</t>
-  </si>
-  <si>
-    <t>KCPK - Số lượt phá thai trên 7 tuần đến 12 tuần</t>
-  </si>
-  <si>
-    <t>INTEGER_ZERO_OR_POSITIVE</t>
+    <t>NAleauPZvIE</t>
+  </si>
+  <si>
+    <t>1. GHI SỔ THEO DÕI TĂNG HUYẾT ÁP</t>
+  </si>
+  <si>
+    <t>xBoLC0aruyJ</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>HjOtfiHHCVv</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới triệt sản nam</t>
-  </si>
-  <si>
-    <t>KzU9muBt4Le</t>
-  </si>
-  <si>
-    <t>KCPK - Số lượt phá thai trên 12 tuần</t>
-  </si>
-  <si>
-    <t>hoegsBrTcwt</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới thực hiện các BPTT hiện đại khác</t>
-  </si>
-  <si>
-    <t>VJVi4KCxpzU</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới dùng thuốc tránh thai - Thuốc cấy</t>
-  </si>
-  <si>
-    <t>hMHRO6boyNh</t>
-  </si>
-  <si>
-    <t>KCPK - Số lượt phá thai ≤ 7 tuần</t>
-  </si>
-  <si>
-    <t>OOvABOGvmwx</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới đặt DCTC</t>
-  </si>
-  <si>
-    <t>ojeJgOjf9vm</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới dùng thuốc tránh thai - Thuốc viên</t>
-  </si>
-  <si>
-    <t>XCOxyF9ZvFn</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới dùng thuốc tránh thai - Thuốc tiêm</t>
-  </si>
-  <si>
-    <t>nOKoSAWmBaJ</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới triệt sản</t>
-  </si>
-  <si>
-    <t>ycVdXnxxwHs</t>
-  </si>
-  <si>
-    <t>KHHGD - Số người mới dùng BCS</t>
-  </si>
-  <si>
-    <t>eqChBVhTqkF</t>
-  </si>
-  <si>
-    <t>KCPK - Số lượt phá thai vị thành niên</t>
-  </si>
-  <si>
-    <t>bjDvmb4bfuf</t>
+    <t>rwreLO34Xg7</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>C7USC9MC8yH</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>JHb1hzseNMg</t>
+  </si>
+  <si>
+    <t>Mã BHYT</t>
+  </si>
+  <si>
+    <t>ZQ93P672wQR</t>
+  </si>
+  <si>
+    <t>Số CMT/CCCD</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>Gy1fkmBZpFk</t>
+  </si>
+  <si>
+    <t>Chọn Xã/ Phường/ Thị trấn</t>
+  </si>
+  <si>
+    <t>ORGANISATION_UNIT</t>
+  </si>
+  <si>
+    <t>Bxp1Lhr8ZeN</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>L4djJU4gMyb</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp</t>
+  </si>
+  <si>
+    <t>mZbgWADLTKY</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>RSNvyMilQxs</t>
+  </si>
+  <si>
+    <t>Ngày phát hiện THA</t>
+  </si>
+  <si>
+    <t>ZYzDKzTIhM2</t>
+  </si>
+  <si>
+    <t>Nơi phát hiện THA</t>
+  </si>
+  <si>
+    <t>Nơi phát hiện</t>
+  </si>
+  <si>
+    <t>gXq0JIWOwz0</t>
+  </si>
+  <si>
+    <t>Tiền sử gia đình</t>
+  </si>
+  <si>
+    <t>a7arqsOKzsr</t>
+  </si>
+  <si>
+    <t>2. GHI SỔ THEO DÕI ĐÁI THÁO ĐƯỜNG</t>
+  </si>
+  <si>
+    <t>LnYKf02oBmF</t>
+  </si>
+  <si>
+    <t>Ngày phát hiện ĐTĐ</t>
+  </si>
+  <si>
+    <t>LHVZXlBbn2l</t>
+  </si>
+  <si>
+    <t>Nơi phát hiện ĐTĐ</t>
+  </si>
+  <si>
+    <t>pUCjzQwxqGT</t>
+  </si>
+  <si>
+    <t>lEGGNaIf0ix</t>
+  </si>
+  <si>
+    <t>sHtAZVQuB2n</t>
   </si>
 </sst>
 </file>
@@ -499,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -525,254 +558,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +604,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -847,6 +632,502 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -854,6 +1135,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -887,136 +1252,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>